--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="H2">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="I2">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="J2">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.546074999999999</v>
+        <v>6.493001333333333</v>
       </c>
       <c r="N2">
-        <v>22.638225</v>
+        <v>19.479004</v>
       </c>
       <c r="O2">
-        <v>0.01315991601134186</v>
+        <v>0.01042978512569556</v>
       </c>
       <c r="P2">
-        <v>0.01315991601134186</v>
+        <v>0.01042978512569556</v>
       </c>
       <c r="Q2">
-        <v>445.4369090248333</v>
+        <v>368.5191471271519</v>
       </c>
       <c r="R2">
-        <v>4008.9321812235</v>
+        <v>3316.672324144368</v>
       </c>
       <c r="S2">
-        <v>0.002647749364794166</v>
+        <v>0.00164120196431363</v>
       </c>
       <c r="T2">
-        <v>0.002647749364794166</v>
+        <v>0.00164120196431363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="H3">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="I3">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="J3">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>60.406792</v>
       </c>
       <c r="O3">
-        <v>0.03511531090598301</v>
+        <v>0.03234404904340005</v>
       </c>
       <c r="P3">
-        <v>0.03511531090598301</v>
+        <v>0.03234404904340005</v>
       </c>
       <c r="Q3">
-        <v>1188.583235328124</v>
+        <v>1142.823291608096</v>
       </c>
       <c r="R3">
-        <v>10697.24911795312</v>
+        <v>10285.40962447286</v>
       </c>
       <c r="S3">
-        <v>0.007065131879696987</v>
+        <v>0.005089569553365503</v>
       </c>
       <c r="T3">
-        <v>0.007065131879696987</v>
+        <v>0.005089569553365504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="H4">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="I4">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="J4">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>257.309204</v>
+        <v>300.2397663333333</v>
       </c>
       <c r="N4">
-        <v>771.927612</v>
+        <v>900.719299</v>
       </c>
       <c r="O4">
-        <v>0.4487322897778286</v>
+        <v>0.4822787010638293</v>
       </c>
       <c r="P4">
-        <v>0.4487322897778287</v>
+        <v>0.4822787010638293</v>
       </c>
       <c r="Q4">
-        <v>15188.69299515315</v>
+        <v>17040.51746528961</v>
       </c>
       <c r="R4">
-        <v>136698.2369563783</v>
+        <v>153364.6571876065</v>
       </c>
       <c r="S4">
-        <v>0.09028405912301328</v>
+        <v>0.07589003435771129</v>
       </c>
       <c r="T4">
-        <v>0.09028405912301329</v>
+        <v>0.0758900343577113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="H5">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="I5">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="J5">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.817396333333333</v>
+        <v>2.838981666666667</v>
       </c>
       <c r="N5">
-        <v>8.452189000000001</v>
+        <v>8.516945</v>
       </c>
       <c r="O5">
-        <v>0.004913375379562115</v>
+        <v>0.004560289955141813</v>
       </c>
       <c r="P5">
-        <v>0.004913375379562115</v>
+        <v>0.004560289955141813</v>
       </c>
       <c r="Q5">
-        <v>166.3079566818378</v>
+        <v>161.13027686266</v>
       </c>
       <c r="R5">
-        <v>1496.77161013654</v>
+        <v>1450.17249176394</v>
       </c>
       <c r="S5">
-        <v>0.0009885615173393781</v>
+        <v>0.0007175945373773294</v>
       </c>
       <c r="T5">
-        <v>0.0009885615173393781</v>
+        <v>0.0007175945373773295</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="H6">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="I6">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="J6">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>285.6053413333333</v>
+        <v>292.8367666666667</v>
       </c>
       <c r="N6">
-        <v>856.816024</v>
+        <v>878.5103</v>
       </c>
       <c r="O6">
-        <v>0.4980791079252844</v>
+        <v>0.4703871748119333</v>
       </c>
       <c r="P6">
-        <v>0.4980791079252843</v>
+        <v>0.4703871748119333</v>
       </c>
       <c r="Q6">
-        <v>16858.98436531607</v>
+        <v>16620.3501215164</v>
       </c>
       <c r="R6">
-        <v>151730.8592878446</v>
+        <v>149583.1510936476</v>
       </c>
       <c r="S6">
-        <v>0.1002125424273088</v>
+        <v>0.0740188168773802</v>
       </c>
       <c r="T6">
-        <v>0.1002125424273088</v>
+        <v>0.07401881687738021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>213.429389</v>
       </c>
       <c r="I7">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="J7">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.546074999999999</v>
+        <v>6.493001333333333</v>
       </c>
       <c r="N7">
-        <v>22.638225</v>
+        <v>19.479004</v>
       </c>
       <c r="O7">
-        <v>0.01315991601134186</v>
+        <v>0.01042978512569556</v>
       </c>
       <c r="P7">
-        <v>0.01315991601134186</v>
+        <v>0.01042978512569556</v>
       </c>
       <c r="Q7">
-        <v>536.8513921993916</v>
+        <v>461.9324357831729</v>
       </c>
       <c r="R7">
-        <v>4831.662529794525</v>
+        <v>4157.391922048556</v>
       </c>
       <c r="S7">
-        <v>0.003191131906416755</v>
+        <v>0.002057218537754684</v>
       </c>
       <c r="T7">
-        <v>0.003191131906416755</v>
+        <v>0.002057218537754685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>213.429389</v>
       </c>
       <c r="I8">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="J8">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>60.406792</v>
       </c>
       <c r="O8">
-        <v>0.03511531090598301</v>
+        <v>0.03234404904340005</v>
       </c>
       <c r="P8">
-        <v>0.03511531090598301</v>
+        <v>0.03234404904340005</v>
       </c>
       <c r="Q8">
         <v>1432.509412001121</v>
@@ -948,10 +948,10 @@
         <v>12892.58470801009</v>
       </c>
       <c r="S8">
-        <v>0.008515068708588256</v>
+        <v>0.006379688217564479</v>
       </c>
       <c r="T8">
-        <v>0.008515068708588256</v>
+        <v>0.00637968821756448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>213.429389</v>
       </c>
       <c r="I9">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="J9">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>257.309204</v>
+        <v>300.2397663333333</v>
       </c>
       <c r="N9">
-        <v>771.927612</v>
+        <v>900.719299</v>
       </c>
       <c r="O9">
-        <v>0.4487322897778286</v>
+        <v>0.4822787010638293</v>
       </c>
       <c r="P9">
-        <v>0.4487322897778287</v>
+        <v>0.4822787010638293</v>
       </c>
       <c r="Q9">
-        <v>18305.78206459878</v>
+        <v>21359.99662734203</v>
       </c>
       <c r="R9">
-        <v>164752.0385813891</v>
+        <v>192239.9696460783</v>
       </c>
       <c r="S9">
-        <v>0.1088125430371547</v>
+        <v>0.0951268575752746</v>
       </c>
       <c r="T9">
-        <v>0.1088125430371548</v>
+        <v>0.09512685757527461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>213.429389</v>
       </c>
       <c r="I10">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="J10">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.817396333333333</v>
+        <v>2.838981666666667</v>
       </c>
       <c r="N10">
-        <v>8.452189000000001</v>
+        <v>8.516945</v>
       </c>
       <c r="O10">
-        <v>0.004913375379562115</v>
+        <v>0.004560289955141813</v>
       </c>
       <c r="P10">
-        <v>0.004913375379562115</v>
+        <v>0.004560289955141813</v>
       </c>
       <c r="Q10">
-        <v>200.4383926647245</v>
+        <v>201.9740408329561</v>
       </c>
       <c r="R10">
-        <v>1803.945533982521</v>
+        <v>1817.766367496605</v>
       </c>
       <c r="S10">
-        <v>0.001191438374561819</v>
+        <v>0.0008994924555196493</v>
       </c>
       <c r="T10">
-        <v>0.001191438374561819</v>
+        <v>0.0008994924555196495</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>213.429389</v>
       </c>
       <c r="I11">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="J11">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>285.6053413333333</v>
+        <v>292.8367666666667</v>
       </c>
       <c r="N11">
-        <v>856.816024</v>
+        <v>878.5103</v>
       </c>
       <c r="O11">
-        <v>0.4980791079252844</v>
+        <v>0.4703871748119333</v>
       </c>
       <c r="P11">
-        <v>0.4980791079252843</v>
+        <v>0.4703871748119333</v>
       </c>
       <c r="Q11">
-        <v>20318.85783196993</v>
+        <v>20833.32406213408</v>
       </c>
       <c r="R11">
-        <v>182869.7204877293</v>
+        <v>187499.9165592067</v>
       </c>
       <c r="S11">
-        <v>0.1207785924963439</v>
+        <v>0.09278131852986063</v>
       </c>
       <c r="T11">
-        <v>0.1207785924963438</v>
+        <v>0.09278131852986064</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="H12">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="I12">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="J12">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.546074999999999</v>
+        <v>6.493001333333333</v>
       </c>
       <c r="N12">
-        <v>22.638225</v>
+        <v>19.479004</v>
       </c>
       <c r="O12">
-        <v>0.01315991601134186</v>
+        <v>0.01042978512569556</v>
       </c>
       <c r="P12">
-        <v>0.01315991601134186</v>
+        <v>0.01042978512569556</v>
       </c>
       <c r="Q12">
-        <v>516.1728703000999</v>
+        <v>810.2475747101125</v>
       </c>
       <c r="R12">
-        <v>4645.555832700899</v>
+        <v>7292.228172391013</v>
       </c>
       <c r="S12">
-        <v>0.003068215412263642</v>
+        <v>0.003608441845046848</v>
       </c>
       <c r="T12">
-        <v>0.003068215412263642</v>
+        <v>0.003608441845046849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="H13">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="I13">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="J13">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>60.406792</v>
       </c>
       <c r="O13">
-        <v>0.03511531090598301</v>
+        <v>0.03234404904340005</v>
       </c>
       <c r="P13">
-        <v>0.03511531090598301</v>
+        <v>0.03234404904340005</v>
       </c>
       <c r="Q13">
-        <v>1377.331801069259</v>
+        <v>2512.677584234709</v>
       </c>
       <c r="R13">
-        <v>12395.98620962333</v>
+        <v>22614.09825811238</v>
       </c>
       <c r="S13">
-        <v>0.008187084023584184</v>
+        <v>0.01119022286652034</v>
       </c>
       <c r="T13">
-        <v>0.008187084023584184</v>
+        <v>0.01119022286652034</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="H14">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="I14">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="J14">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>257.309204</v>
+        <v>300.2397663333333</v>
       </c>
       <c r="N14">
-        <v>771.927612</v>
+        <v>900.719299</v>
       </c>
       <c r="O14">
-        <v>0.4487322897778286</v>
+        <v>0.4822787010638293</v>
       </c>
       <c r="P14">
-        <v>0.4487322897778287</v>
+        <v>0.4822787010638293</v>
       </c>
       <c r="Q14">
-        <v>17600.67722402891</v>
+        <v>37466.27022148271</v>
       </c>
       <c r="R14">
-        <v>158406.0950162602</v>
+        <v>337196.4319933444</v>
       </c>
       <c r="S14">
-        <v>0.1046212852946849</v>
+        <v>0.1668562319281245</v>
       </c>
       <c r="T14">
-        <v>0.1046212852946849</v>
+        <v>0.1668562319281245</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="H15">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="I15">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="J15">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.817396333333333</v>
+        <v>2.838981666666667</v>
       </c>
       <c r="N15">
-        <v>8.452189000000001</v>
+        <v>8.516945</v>
       </c>
       <c r="O15">
-        <v>0.004913375379562115</v>
+        <v>0.004560289955141813</v>
       </c>
       <c r="P15">
-        <v>0.004913375379562115</v>
+        <v>0.004560289955141813</v>
       </c>
       <c r="Q15">
-        <v>192.7178767968307</v>
+        <v>354.2703738953706</v>
       </c>
       <c r="R15">
-        <v>1734.460891171476</v>
+        <v>3188.433365058335</v>
       </c>
       <c r="S15">
-        <v>0.001145546373762308</v>
+        <v>0.001577744977616029</v>
       </c>
       <c r="T15">
-        <v>0.001145546373762308</v>
+        <v>0.001577744977616029</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="H16">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="I16">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="J16">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>285.6053413333333</v>
+        <v>292.8367666666667</v>
       </c>
       <c r="N16">
-        <v>856.816024</v>
+        <v>878.5103</v>
       </c>
       <c r="O16">
-        <v>0.4980791079252844</v>
+        <v>0.4703871748119333</v>
       </c>
       <c r="P16">
-        <v>0.4980791079252843</v>
+        <v>0.4703871748119333</v>
       </c>
       <c r="Q16">
-        <v>19536.21303910529</v>
+        <v>36542.46592550899</v>
       </c>
       <c r="R16">
-        <v>175825.9173519476</v>
+        <v>328882.1933295809</v>
       </c>
       <c r="S16">
-        <v>0.116126424678227</v>
+        <v>0.1627420646263362</v>
       </c>
       <c r="T16">
-        <v>0.1161264246782269</v>
+        <v>0.1627420646263362</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="H17">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="I17">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="J17">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.546074999999999</v>
+        <v>6.493001333333333</v>
       </c>
       <c r="N17">
-        <v>22.638225</v>
+        <v>19.479004</v>
       </c>
       <c r="O17">
-        <v>0.01315991601134186</v>
+        <v>0.01042978512569556</v>
       </c>
       <c r="P17">
-        <v>0.01315991601134186</v>
+        <v>0.01042978512569556</v>
       </c>
       <c r="Q17">
-        <v>154.4321428647416</v>
+        <v>139.5689011793773</v>
       </c>
       <c r="R17">
-        <v>1389.889285782675</v>
+        <v>1256.120110614396</v>
       </c>
       <c r="S17">
-        <v>0.0009179697503493709</v>
+        <v>0.0006215708371148895</v>
       </c>
       <c r="T17">
-        <v>0.0009179697503493709</v>
+        <v>0.0006215708371148896</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="H18">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="I18">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="J18">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>60.406792</v>
       </c>
       <c r="O18">
-        <v>0.03511531090598301</v>
+        <v>0.03234404904340005</v>
       </c>
       <c r="P18">
-        <v>0.03511531090598301</v>
+        <v>0.03234404904340005</v>
       </c>
       <c r="Q18">
-        <v>412.0795836309929</v>
+        <v>432.8203630540453</v>
       </c>
       <c r="R18">
-        <v>3708.716252678936</v>
+        <v>3895.383267486408</v>
       </c>
       <c r="S18">
-        <v>0.002449468002533166</v>
+        <v>0.001927567768396424</v>
       </c>
       <c r="T18">
-        <v>0.002449468002533166</v>
+        <v>0.001927567768396424</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="H19">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="I19">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="J19">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>257.309204</v>
+        <v>300.2397663333333</v>
       </c>
       <c r="N19">
-        <v>771.927612</v>
+        <v>900.719299</v>
       </c>
       <c r="O19">
-        <v>0.4487322897778286</v>
+        <v>0.4822787010638293</v>
       </c>
       <c r="P19">
-        <v>0.4487322897778287</v>
+        <v>0.4822787010638293</v>
       </c>
       <c r="Q19">
-        <v>5265.891440588777</v>
+        <v>6453.738745188872</v>
       </c>
       <c r="R19">
-        <v>47393.02296529899</v>
+        <v>58083.64870669985</v>
       </c>
       <c r="S19">
-        <v>0.03130131435991231</v>
+        <v>0.02874175952142966</v>
       </c>
       <c r="T19">
-        <v>0.03130131435991232</v>
+        <v>0.02874175952142966</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="H20">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="I20">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="J20">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.817396333333333</v>
+        <v>2.838981666666667</v>
       </c>
       <c r="N20">
-        <v>8.452189000000001</v>
+        <v>8.516945</v>
       </c>
       <c r="O20">
-        <v>0.004913375379562115</v>
+        <v>0.004560289955141813</v>
       </c>
       <c r="P20">
-        <v>0.004913375379562115</v>
+        <v>0.004560289955141813</v>
       </c>
       <c r="Q20">
-        <v>57.65865738889856</v>
+        <v>61.02471435681167</v>
       </c>
       <c r="R20">
-        <v>518.9279165000871</v>
+        <v>549.222429211305</v>
       </c>
       <c r="S20">
-        <v>0.000342732428281621</v>
+        <v>0.0002717738870689422</v>
       </c>
       <c r="T20">
-        <v>0.000342732428281621</v>
+        <v>0.0002717738870689422</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="H21">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="I21">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="J21">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>285.6053413333333</v>
+        <v>292.8367666666667</v>
       </c>
       <c r="N21">
-        <v>856.816024</v>
+        <v>878.5103</v>
       </c>
       <c r="O21">
-        <v>0.4980791079252844</v>
+        <v>0.4703871748119333</v>
       </c>
       <c r="P21">
-        <v>0.4980791079252843</v>
+        <v>0.4703871748119333</v>
       </c>
       <c r="Q21">
-        <v>5844.978333202711</v>
+        <v>6294.609172304967</v>
       </c>
       <c r="R21">
-        <v>52604.80499882439</v>
+        <v>56651.4825507447</v>
       </c>
       <c r="S21">
-        <v>0.03474350094349803</v>
+        <v>0.02803307512976807</v>
       </c>
       <c r="T21">
-        <v>0.03474350094349802</v>
+        <v>0.02803307512976807</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="H22">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="I22">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="J22">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.546074999999999</v>
+        <v>6.493001333333333</v>
       </c>
       <c r="N22">
-        <v>22.638225</v>
+        <v>19.479004</v>
       </c>
       <c r="O22">
-        <v>0.01315991601134186</v>
+        <v>0.01042978512569556</v>
       </c>
       <c r="P22">
-        <v>0.01315991601134186</v>
+        <v>0.01042978512569556</v>
       </c>
       <c r="Q22">
-        <v>561.029343495975</v>
+        <v>561.659140177316</v>
       </c>
       <c r="R22">
-        <v>5049.264091463775</v>
+        <v>5054.932261595844</v>
       </c>
       <c r="S22">
-        <v>0.003334849577517925</v>
+        <v>0.002501351941465509</v>
       </c>
       <c r="T22">
-        <v>0.003334849577517925</v>
+        <v>0.00250135194146551</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="H23">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="I23">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="J23">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>60.406792</v>
       </c>
       <c r="O23">
-        <v>0.03511531090598301</v>
+        <v>0.03234404904340005</v>
       </c>
       <c r="P23">
-        <v>0.03511531090598301</v>
+        <v>0.03234404904340005</v>
       </c>
       <c r="Q23">
-        <v>1497.024738399672</v>
+        <v>1741.774212664568</v>
       </c>
       <c r="R23">
-        <v>13473.22264559705</v>
+        <v>15675.96791398111</v>
       </c>
       <c r="S23">
-        <v>0.008898558291580422</v>
+        <v>0.007757000637553296</v>
       </c>
       <c r="T23">
-        <v>0.008898558291580422</v>
+        <v>0.007757000637553297</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="H24">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="I24">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="J24">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>257.309204</v>
+        <v>300.2397663333333</v>
       </c>
       <c r="N24">
-        <v>771.927612</v>
+        <v>900.719299</v>
       </c>
       <c r="O24">
-        <v>0.4487322897778286</v>
+        <v>0.4822787010638293</v>
       </c>
       <c r="P24">
-        <v>0.4487322897778287</v>
+        <v>0.4822787010638293</v>
       </c>
       <c r="Q24">
-        <v>19130.21190428029</v>
+        <v>25971.41142419062</v>
       </c>
       <c r="R24">
-        <v>172171.9071385226</v>
+        <v>233742.7028177156</v>
       </c>
       <c r="S24">
-        <v>0.1137130879630634</v>
+        <v>0.1156638176812892</v>
       </c>
       <c r="T24">
-        <v>0.1137130879630634</v>
+        <v>0.1156638176812892</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="H25">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="I25">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="J25">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.817396333333333</v>
+        <v>2.838981666666667</v>
       </c>
       <c r="N25">
-        <v>8.452189000000001</v>
+        <v>8.516945</v>
       </c>
       <c r="O25">
-        <v>0.004913375379562115</v>
+        <v>0.004560289955141813</v>
       </c>
       <c r="P25">
-        <v>0.004913375379562115</v>
+        <v>0.004560289955141813</v>
       </c>
       <c r="Q25">
-        <v>209.4654526038991</v>
+        <v>245.578264968655</v>
       </c>
       <c r="R25">
-        <v>1885.189073435091</v>
+        <v>2210.204384717895</v>
       </c>
       <c r="S25">
-        <v>0.001245096685616989</v>
+        <v>0.001093684097559863</v>
       </c>
       <c r="T25">
-        <v>0.001245096685616989</v>
+        <v>0.001093684097559863</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="H26">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="I26">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="J26">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>285.6053413333333</v>
+        <v>292.8367666666667</v>
       </c>
       <c r="N26">
-        <v>856.816024</v>
+        <v>878.5103</v>
       </c>
       <c r="O26">
-        <v>0.4980791079252844</v>
+        <v>0.4703871748119333</v>
       </c>
       <c r="P26">
-        <v>0.4980791079252843</v>
+        <v>0.4703871748119333</v>
       </c>
       <c r="Q26">
-        <v>21233.94972183339</v>
+        <v>25331.0353925137</v>
       </c>
       <c r="R26">
-        <v>191105.5474965005</v>
+        <v>227979.3185326233</v>
       </c>
       <c r="S26">
-        <v>0.1262180473799067</v>
+        <v>0.1128118996485882</v>
       </c>
       <c r="T26">
-        <v>0.1262180473799067</v>
+        <v>0.1128118996485882</v>
       </c>
     </row>
   </sheetData>
